--- a/biology/Zoologie/Barbourisia_rufa/Barbourisia_rufa.xlsx
+++ b/biology/Zoologie/Barbourisia_rufa/Barbourisia_rufa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Barbourisia rufa est un poisson, unique représentant du genre Barbourisia et de la famille des Barbourisiidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une espèce vivant à grande profondeur (entre 300 m et 2 000 m) et que l'on trouve dans le Pacifique entre le Japon et la Nouvelle-Zélande.
 Comme la plupart des autres poissons de l'ordre des Stephanoberyciformes, sa forme générale est arrondie (ce qui le fait ressembler à une baleine) et ses nageoires pectorales et pelviennes sont petites. La dorsale et l'anale sont, quant à elle, positionnées très en arrière. Le corps et les nageoires sont recouverts de petites spicules lui donnant un aspect velours. La tonalité générale est rouge vif ou orange sombre.
